--- a/GATEWAY/A1#111#NISATEKXX/nisatek/adtweb/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#NISATEKXX/nisatek/adtweb/2.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\nisatek\it-fse-accreditamento-adtweb-2.0\GATEWAY\A1#111#NISATEKXX\nisatek\adtweb\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF373C-8A86-46D6-AC5C-4B64D2AB0AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6F15BE-0411-4589-9C9D-9DDA660D35A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4506,15 +4506,6 @@
     <t>Nisatek S.r.l. a socio unico</t>
   </si>
   <si>
-    <t>2024-05-6T13:41:12Z</t>
-  </si>
-  <si>
-    <t>25a2c54bbcc2be54</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.fbd12229d8a2656fbab7cc2af901ca423892877caefcdc55531875b8f1ca3139.d5343da0e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-06T13:54:46Z</t>
   </si>
   <si>
@@ -4855,6 +4846,15 @@
   </si>
   <si>
     <t>35e715c9f03cd6ec</t>
+  </si>
+  <si>
+    <t>2024-05-13T08:06:48Z</t>
+  </si>
+  <si>
+    <t>7b4688253f3e46fc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3c6eab64bea8c0b7b46060a335ab16cc930f78a6f183dd47d56870c35b6e6c02.5948e52ba5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5280,6 +5280,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5297,22 +5313,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7474,14 +7474,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomRight" activeCell="I378" sqref="I378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7521,14 +7520,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>851</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="40"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7546,14 +7545,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>848</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="40"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7571,12 +7570,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>849</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7595,12 +7594,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>850</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7618,8 +7617,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7926,7 +7925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -7945,14 +7944,14 @@
       <c r="F15" s="23">
         <v>45418</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>856</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>857</v>
+      <c r="G15" s="33" t="s">
+        <v>852</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>854</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>137</v>
@@ -7970,7 +7969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -7989,22 +7988,22 @@
       <c r="F16" s="23">
         <v>45418</v>
       </c>
-      <c r="G16" s="45" t="s">
-        <v>858</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>859</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>860</v>
+      <c r="G16" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>857</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>137</v>
       </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="47"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="46"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
@@ -8014,7 +8013,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -8033,14 +8032,14 @@
       <c r="F17" s="23">
         <v>45418</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>861</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>862</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>863</v>
+      <c r="G17" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>859</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>860</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>137</v>
@@ -8058,7 +8057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -8077,14 +8076,14 @@
       <c r="F18" s="23">
         <v>45418</v>
       </c>
-      <c r="G18" s="45" t="s">
-        <v>865</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>864</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>866</v>
+      <c r="G18" s="33" t="s">
+        <v>862</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>861</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>863</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>137</v>
@@ -8748,7 +8747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>29</v>
       </c>
@@ -8761,20 +8760,20 @@
       <c r="D36" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="36" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="23">
         <v>45418</v>
       </c>
-      <c r="G36" s="45" t="s">
-        <v>867</v>
+      <c r="G36" s="33" t="s">
+        <v>864</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>868</v>
-      </c>
-      <c r="I36" s="45" t="s">
-        <v>869</v>
+        <v>865</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>866</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>137</v>
@@ -8790,8 +8789,8 @@
       <c r="O36" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P36" s="46" t="s">
-        <v>872</v>
+      <c r="P36" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
@@ -9066,7 +9065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>37</v>
       </c>
@@ -9086,13 +9085,13 @@
         <v>45419</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>870</v>
-      </c>
-      <c r="I44" s="45" t="s">
-        <v>869</v>
+        <v>867</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>866</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>137</v>
@@ -9108,8 +9107,8 @@
       <c r="O44" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P44" s="46" t="s">
-        <v>872</v>
+      <c r="P44" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -9386,7 +9385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>45</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>136</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="G52" s="45"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="25" t="s">
@@ -9420,8 +9419,8 @@
       <c r="O52" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P52" s="46" t="s">
-        <v>917</v>
+      <c r="P52" s="34" t="s">
+        <v>914</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26"/>
@@ -10088,7 +10087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>63</v>
       </c>
@@ -10107,14 +10106,14 @@
       <c r="F70" s="23">
         <v>45419</v>
       </c>
-      <c r="G70" s="45" t="s">
-        <v>873</v>
+      <c r="G70" s="33" t="s">
+        <v>870</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>137</v>
@@ -10130,8 +10129,8 @@
       <c r="O70" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P70" s="46" t="s">
-        <v>872</v>
+      <c r="P70" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q70" s="25"/>
       <c r="R70" s="26"/>
@@ -10140,7 +10139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>64</v>
       </c>
@@ -10159,14 +10158,14 @@
       <c r="F71" s="23">
         <v>45419</v>
       </c>
-      <c r="G71" s="45" t="s">
-        <v>876</v>
+      <c r="G71" s="33" t="s">
+        <v>873</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>137</v>
@@ -10182,8 +10181,8 @@
       <c r="O71" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P71" s="46" t="s">
-        <v>872</v>
+      <c r="P71" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q71" s="25"/>
       <c r="R71" s="26"/>
@@ -10192,7 +10191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>65</v>
       </c>
@@ -10211,14 +10210,14 @@
       <c r="F72" s="23">
         <v>45419</v>
       </c>
-      <c r="G72" s="45" t="s">
-        <v>879</v>
-      </c>
-      <c r="H72" s="45" t="s">
-        <v>880</v>
+      <c r="G72" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>877</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>137</v>
@@ -10234,8 +10233,8 @@
       <c r="O72" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P72" s="46" t="s">
-        <v>872</v>
+      <c r="P72" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q72" s="25"/>
       <c r="R72" s="26"/>
@@ -10244,7 +10243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>66</v>
       </c>
@@ -10264,13 +10263,13 @@
         <v>45419</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="J73" s="25" t="s">
         <v>137</v>
@@ -10286,8 +10285,8 @@
       <c r="O73" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P73" s="46" t="s">
-        <v>872</v>
+      <c r="P73" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q73" s="25"/>
       <c r="R73" s="26"/>
@@ -10296,7 +10295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>67</v>
       </c>
@@ -10316,13 +10315,13 @@
         <v>45419</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>137</v>
@@ -10338,8 +10337,8 @@
       <c r="O74" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P74" s="46" t="s">
-        <v>872</v>
+      <c r="P74" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q74" s="25"/>
       <c r="R74" s="26"/>
@@ -10348,7 +10347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>68</v>
       </c>
@@ -10368,13 +10367,13 @@
         <v>45419</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>137</v>
@@ -10390,8 +10389,8 @@
       <c r="O75" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P75" s="46" t="s">
-        <v>872</v>
+      <c r="P75" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q75" s="25"/>
       <c r="R75" s="26"/>
@@ -10400,7 +10399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>69</v>
       </c>
@@ -10420,13 +10419,13 @@
         <v>45419</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>137</v>
@@ -10442,8 +10441,8 @@
       <c r="O76" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P76" s="46" t="s">
-        <v>872</v>
+      <c r="P76" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q76" s="25"/>
       <c r="R76" s="26"/>
@@ -10452,7 +10451,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>70</v>
       </c>
@@ -10472,13 +10471,13 @@
         <v>45419</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>137</v>
@@ -10494,8 +10493,8 @@
       <c r="O77" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P77" s="46" t="s">
-        <v>872</v>
+      <c r="P77" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q77" s="25"/>
       <c r="R77" s="26"/>
@@ -10504,7 +10503,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>71</v>
       </c>
@@ -10524,13 +10523,13 @@
         <v>45419</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>137</v>
@@ -10546,8 +10545,8 @@
       <c r="O78" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P78" s="46" t="s">
-        <v>872</v>
+      <c r="P78" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q78" s="25"/>
       <c r="R78" s="26"/>
@@ -10556,7 +10555,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>72</v>
       </c>
@@ -10576,13 +10575,13 @@
         <v>45419</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>137</v>
@@ -10598,8 +10597,8 @@
       <c r="O79" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P79" s="46" t="s">
-        <v>872</v>
+      <c r="P79" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q79" s="25"/>
       <c r="R79" s="26"/>
@@ -10608,7 +10607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>73</v>
       </c>
@@ -10628,13 +10627,13 @@
         <v>45419</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>137</v>
@@ -10650,8 +10649,8 @@
       <c r="O80" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P80" s="46" t="s">
-        <v>872</v>
+      <c r="P80" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q80" s="25"/>
       <c r="R80" s="26"/>
@@ -10660,7 +10659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>74</v>
       </c>
@@ -10680,13 +10679,13 @@
         <v>45419</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="J81" s="25" t="s">
         <v>137</v>
@@ -10702,8 +10701,8 @@
       <c r="O81" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P81" s="46" t="s">
-        <v>872</v>
+      <c r="P81" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="Q81" s="25"/>
       <c r="R81" s="26"/>
@@ -15766,7 +15765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="20">
         <v>208</v>
       </c>
@@ -15785,14 +15784,14 @@
       <c r="F215" s="23">
         <v>45419</v>
       </c>
-      <c r="G215" s="45" t="s">
-        <v>911</v>
-      </c>
-      <c r="H215" s="45" t="s">
-        <v>909</v>
+      <c r="G215" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="H215" s="33" t="s">
+        <v>906</v>
       </c>
       <c r="I215" s="24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J215" s="25" t="s">
         <v>137</v>
@@ -15810,7 +15809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="20">
         <v>209</v>
       </c>
@@ -15830,13 +15829,13 @@
         <v>45420</v>
       </c>
       <c r="G216" s="24" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H216" s="24" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I216" s="24" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J216" s="25" t="s">
         <v>137</v>
@@ -15854,7 +15853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="255.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="20">
         <v>210</v>
       </c>
@@ -15874,13 +15873,13 @@
         <v>45785</v>
       </c>
       <c r="G217" s="24" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H217" s="24" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I217" s="24" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J217" s="25" t="s">
         <v>137</v>
@@ -15898,7 +15897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="20">
         <v>211</v>
       </c>
@@ -15918,13 +15917,13 @@
         <v>45420</v>
       </c>
       <c r="G218" s="24" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H218" s="24" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="I218" s="24" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J218" s="25" t="s">
         <v>137</v>
@@ -15942,7 +15941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="255.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="20">
         <v>212</v>
       </c>
@@ -15962,13 +15961,13 @@
         <v>45420</v>
       </c>
       <c r="G219" s="24" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H219" s="24" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I219" s="24" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J219" s="25" t="s">
         <v>137</v>
@@ -15986,7 +15985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="20">
         <v>213</v>
       </c>
@@ -16006,10 +16005,10 @@
         <v>45419</v>
       </c>
       <c r="G220" s="24" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H220" s="24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="I220" s="24"/>
       <c r="J220" s="25" t="s">
@@ -16026,8 +16025,8 @@
       <c r="O220" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P220" s="46" t="s">
-        <v>921</v>
+      <c r="P220" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q220" s="25"/>
       <c r="R220" s="26"/>
@@ -16036,7 +16035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="20">
         <v>214</v>
       </c>
@@ -16056,13 +16055,13 @@
         <v>45419</v>
       </c>
       <c r="G221" s="24" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H221" s="24" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="I221" s="24" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J221" s="25" t="s">
         <v>137</v>
@@ -16078,8 +16077,8 @@
       <c r="O221" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P221" s="46" t="s">
-        <v>921</v>
+      <c r="P221" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q221" s="25"/>
       <c r="R221" s="26"/>
@@ -16088,7 +16087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="20">
         <v>215</v>
       </c>
@@ -16101,20 +16100,20 @@
       <c r="D222" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="E222" s="48" t="s">
+      <c r="E222" s="36" t="s">
         <v>477</v>
       </c>
       <c r="F222" s="23">
         <v>45419</v>
       </c>
-      <c r="G222" s="45" t="s">
-        <v>918</v>
-      </c>
-      <c r="H222" s="45" t="s">
-        <v>919</v>
-      </c>
-      <c r="I222" s="45" t="s">
-        <v>920</v>
+      <c r="G222" s="33" t="s">
+        <v>915</v>
+      </c>
+      <c r="H222" s="33" t="s">
+        <v>916</v>
+      </c>
+      <c r="I222" s="33" t="s">
+        <v>917</v>
       </c>
       <c r="J222" s="25" t="s">
         <v>137</v>
@@ -16130,8 +16129,8 @@
       <c r="O222" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P222" s="46" t="s">
-        <v>923</v>
+      <c r="P222" s="34" t="s">
+        <v>920</v>
       </c>
       <c r="Q222" s="25"/>
       <c r="R222" s="26"/>
@@ -16140,7 +16139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="20">
         <v>216</v>
       </c>
@@ -16174,8 +16173,8 @@
       <c r="O223" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P223" s="46" t="s">
-        <v>922</v>
+      <c r="P223" s="34" t="s">
+        <v>919</v>
       </c>
       <c r="Q223" s="25"/>
       <c r="R223" s="26"/>
@@ -16184,7 +16183,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="20">
         <v>217</v>
       </c>
@@ -16197,20 +16196,20 @@
       <c r="D224" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="E224" s="48" t="s">
+      <c r="E224" s="36" t="s">
         <v>481</v>
       </c>
       <c r="F224" s="23">
         <v>45420</v>
       </c>
-      <c r="G224" s="45" t="s">
-        <v>924</v>
-      </c>
-      <c r="H224" s="45" t="s">
-        <v>925</v>
-      </c>
-      <c r="I224" s="45" t="s">
-        <v>926</v>
+      <c r="G224" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="H224" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="I224" s="33" t="s">
+        <v>923</v>
       </c>
       <c r="J224" s="25" t="s">
         <v>137</v>
@@ -16226,17 +16225,17 @@
       <c r="O224" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P224" s="46" t="s">
-        <v>930</v>
-      </c>
-      <c r="Q224" s="46"/>
+      <c r="P224" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q224" s="34"/>
       <c r="R224" s="26"/>
       <c r="S224" s="27"/>
       <c r="T224" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="20">
         <v>218</v>
       </c>
@@ -16249,20 +16248,20 @@
       <c r="D225" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="E225" s="48" t="s">
+      <c r="E225" s="36" t="s">
         <v>483</v>
       </c>
       <c r="F225" s="23">
         <v>45420</v>
       </c>
-      <c r="G225" s="45" t="s">
-        <v>929</v>
-      </c>
-      <c r="H225" s="45" t="s">
-        <v>928</v>
-      </c>
-      <c r="I225" s="45" t="s">
-        <v>927</v>
+      <c r="G225" s="33" t="s">
+        <v>926</v>
+      </c>
+      <c r="H225" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="I225" s="33" t="s">
+        <v>924</v>
       </c>
       <c r="J225" s="25" t="s">
         <v>137</v>
@@ -16278,17 +16277,17 @@
       <c r="O225" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P225" s="46" t="s">
-        <v>930</v>
-      </c>
-      <c r="Q225" s="46"/>
+      <c r="P225" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q225" s="34"/>
       <c r="R225" s="26"/>
       <c r="S225" s="27"/>
       <c r="T225" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="20">
         <v>219</v>
       </c>
@@ -16301,20 +16300,20 @@
       <c r="D226" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="E226" s="48" t="s">
+      <c r="E226" s="36" t="s">
         <v>485</v>
       </c>
       <c r="F226" s="23">
         <v>45420</v>
       </c>
       <c r="G226" s="24" t="s">
-        <v>933</v>
-      </c>
-      <c r="H226" s="45" t="s">
-        <v>932</v>
-      </c>
-      <c r="I226" s="45" t="s">
-        <v>931</v>
+        <v>930</v>
+      </c>
+      <c r="H226" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="I226" s="33" t="s">
+        <v>928</v>
       </c>
       <c r="J226" s="25" t="s">
         <v>137</v>
@@ -16330,8 +16329,8 @@
       <c r="O226" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P226" s="46" t="s">
-        <v>930</v>
+      <c r="P226" s="34" t="s">
+        <v>927</v>
       </c>
       <c r="Q226" s="25"/>
       <c r="R226" s="26"/>
@@ -16340,7 +16339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="20">
         <v>220</v>
       </c>
@@ -16360,10 +16359,10 @@
         <v>45420</v>
       </c>
       <c r="G227" s="24" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="H227" s="24" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I227" s="24"/>
       <c r="J227" s="25" t="s">
@@ -16380,8 +16379,8 @@
       <c r="O227" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P227" s="46" t="s">
-        <v>921</v>
+      <c r="P227" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q227" s="25"/>
       <c r="R227" s="26"/>
@@ -16390,7 +16389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20">
         <v>221</v>
       </c>
@@ -16410,10 +16409,10 @@
         <v>45785</v>
       </c>
       <c r="G228" s="24" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H228" s="24" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="I228" s="24"/>
       <c r="J228" s="25" t="s">
@@ -16430,8 +16429,8 @@
       <c r="O228" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P228" s="46" t="s">
-        <v>921</v>
+      <c r="P228" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q228" s="25"/>
       <c r="R228" s="26"/>
@@ -16440,7 +16439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20">
         <v>222</v>
       </c>
@@ -16460,13 +16459,13 @@
         <v>45420</v>
       </c>
       <c r="G229" s="24" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H229" s="24" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I229" s="24" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J229" s="25" t="s">
         <v>137</v>
@@ -16482,8 +16481,8 @@
       <c r="O229" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P229" s="46" t="s">
-        <v>921</v>
+      <c r="P229" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q229" s="25"/>
       <c r="R229" s="26"/>
@@ -16492,7 +16491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20">
         <v>223</v>
       </c>
@@ -16512,10 +16511,10 @@
         <v>45420</v>
       </c>
       <c r="G230" s="24" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H230" s="24" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I230" s="24"/>
       <c r="J230" s="25" t="s">
@@ -16532,8 +16531,8 @@
       <c r="O230" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P230" s="46" t="s">
-        <v>921</v>
+      <c r="P230" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q230" s="25"/>
       <c r="R230" s="26"/>
@@ -20342,7 +20341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="285.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="20">
         <v>324</v>
       </c>
@@ -20355,20 +20354,20 @@
       <c r="D331" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="E331" s="48" t="s">
+      <c r="E331" s="36" t="s">
         <v>688</v>
       </c>
       <c r="F331" s="23">
         <v>45420</v>
       </c>
-      <c r="G331" s="45" t="s">
-        <v>934</v>
-      </c>
-      <c r="H331" s="45" t="s">
-        <v>935</v>
-      </c>
-      <c r="I331" s="45" t="s">
-        <v>936</v>
+      <c r="G331" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="H331" s="33" t="s">
+        <v>932</v>
+      </c>
+      <c r="I331" s="33" t="s">
+        <v>933</v>
       </c>
       <c r="J331" s="25" t="s">
         <v>137</v>
@@ -20384,8 +20383,8 @@
       <c r="O331" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P331" s="46" t="s">
-        <v>921</v>
+      <c r="P331" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q331" s="25"/>
       <c r="R331" s="26"/>
@@ -20394,7 +20393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="20">
         <v>325</v>
       </c>
@@ -20407,20 +20406,20 @@
       <c r="D332" s="21" t="s">
         <v>689</v>
       </c>
-      <c r="E332" s="48" t="s">
+      <c r="E332" s="36" t="s">
         <v>690</v>
       </c>
       <c r="F332" s="23">
         <v>45420</v>
       </c>
-      <c r="G332" s="45" t="s">
-        <v>937</v>
+      <c r="G332" s="33" t="s">
+        <v>934</v>
       </c>
       <c r="H332" s="24" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="I332" s="24" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J332" s="25" t="s">
         <v>137</v>
@@ -20436,8 +20435,8 @@
       <c r="O332" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P332" s="46" t="s">
-        <v>921</v>
+      <c r="P332" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q332" s="25"/>
       <c r="R332" s="26"/>
@@ -20446,7 +20445,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="300.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="20">
         <v>326</v>
       </c>
@@ -20466,13 +20465,13 @@
         <v>45420</v>
       </c>
       <c r="G333" s="24" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H333" s="24" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I333" s="24" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J333" s="25" t="s">
         <v>137</v>
@@ -20488,8 +20487,8 @@
       <c r="O333" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P333" s="46" t="s">
-        <v>921</v>
+      <c r="P333" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q333" s="25"/>
       <c r="R333" s="26"/>
@@ -20498,7 +20497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="20">
         <v>327</v>
       </c>
@@ -20518,13 +20517,13 @@
         <v>45420</v>
       </c>
       <c r="G334" s="24" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="H334" s="24" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="I334" s="24" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J334" s="25" t="s">
         <v>137</v>
@@ -20540,8 +20539,8 @@
       <c r="O334" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P334" s="46" t="s">
-        <v>921</v>
+      <c r="P334" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q334" s="25"/>
       <c r="R334" s="26"/>
@@ -21538,7 +21537,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="255.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="20">
         <v>354</v>
       </c>
@@ -21558,10 +21557,10 @@
         <v>45785</v>
       </c>
       <c r="G361" s="24" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H361" s="24" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I361" s="24"/>
       <c r="J361" s="25" t="s">
@@ -21578,8 +21577,8 @@
       <c r="O361" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P361" s="46" t="s">
-        <v>921</v>
+      <c r="P361" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q361" s="25"/>
       <c r="R361" s="26"/>
@@ -21588,7 +21587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="20">
         <v>355</v>
       </c>
@@ -21608,10 +21607,10 @@
         <v>45785</v>
       </c>
       <c r="G362" s="24" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H362" s="24" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I362" s="24"/>
       <c r="J362" s="25" t="s">
@@ -21628,8 +21627,8 @@
       <c r="O362" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P362" s="46" t="s">
-        <v>921</v>
+      <c r="P362" s="34" t="s">
+        <v>918</v>
       </c>
       <c r="Q362" s="25"/>
       <c r="R362" s="26"/>
@@ -22132,7 +22131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20">
         <v>369</v>
       </c>
@@ -22149,16 +22148,16 @@
         <v>778</v>
       </c>
       <c r="F376" s="23">
-        <v>45418</v>
-      </c>
-      <c r="G376" s="45" t="s">
-        <v>852</v>
-      </c>
-      <c r="H376" s="45" t="s">
-        <v>853</v>
-      </c>
-      <c r="I376" s="45" t="s">
-        <v>854</v>
+        <v>45425</v>
+      </c>
+      <c r="G376" s="33" t="s">
+        <v>966</v>
+      </c>
+      <c r="H376" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="I376" s="33" t="s">
+        <v>968</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>137</v>
@@ -27094,19 +27093,7 @@
       <c r="T1000" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T383" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CERT_VAC"/>
-        <filter val="LAB"/>
-        <filter val="PSS"/>
-        <filter val="RAD"/>
-        <filter val="RSA"/>
-        <filter val="SING_VAC"/>
-        <filter val="VPS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T383" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111#NISATEKXX/nisatek/adtweb/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#NISATEKXX/nisatek/adtweb/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\nisatek\it-fse-accreditamento-adtweb-2.0\GATEWAY\A1#111#NISATEKXX\nisatek\adtweb\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6F15BE-0411-4589-9C9D-9DDA660D35A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B59B1-24BE-45F7-AAEB-AF9EBCCE8E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4848,13 +4848,13 @@
     <t>35e715c9f03cd6ec</t>
   </si>
   <si>
-    <t>2024-05-13T08:06:48Z</t>
-  </si>
-  <si>
-    <t>7b4688253f3e46fc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.3c6eab64bea8c0b7b46060a335ab16cc930f78a6f183dd47d56870c35b6e6c02.5948e52ba5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-05-14T12:29:06Z</t>
+  </si>
+  <si>
+    <t>13de906f6b541e4c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3c6eab64bea8c0b7b46060a335ab16cc930f78a6f183dd47d56870c35b6e6c02.1cc926d6bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7477,10 +7477,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E375" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I378" sqref="I378"/>
+      <selection pane="bottomRight" activeCell="I376" sqref="I376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22148,7 +22148,7 @@
         <v>778</v>
       </c>
       <c r="F376" s="23">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="G376" s="33" t="s">
         <v>966</v>
